--- a/Access_Data_Export/Cases_Test.xlsx
+++ b/Access_Data_Export/Cases_Test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD52768-8012-428A-AA1C-139F2A60C989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0CF30C32-8197-4B52-9BD2-57CE08BC114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3E5A875-2A4D-44EB-AFE4-0A42AF60CA39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cases_Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
   <si>
     <t>(نافتو جاز) 732 / 2016</t>
   </si>
@@ -211,9 +211,6 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>matter_id</t>
-  </si>
-  <si>
     <t>matter_name_ar</t>
   </si>
   <si>
@@ -223,27 +220,6 @@
     <t>matter_description</t>
   </si>
   <si>
-    <t>matter_status</t>
-  </si>
-  <si>
-    <t>matter_category</t>
-  </si>
-  <si>
-    <t>matterDegree</t>
-  </si>
-  <si>
-    <t>matterImportance</t>
-  </si>
-  <si>
-    <t>matterNotes2</t>
-  </si>
-  <si>
-    <t>matterStartDate</t>
-  </si>
-  <si>
-    <t>circutSecretary</t>
-  </si>
-  <si>
     <t>matterAskedAmount</t>
   </si>
   <si>
@@ -253,9 +229,6 @@
     <t>clientBranch</t>
   </si>
   <si>
-    <t>matterShelf</t>
-  </si>
-  <si>
     <t>courtFloor</t>
   </si>
   <si>
@@ -265,45 +238,15 @@
     <t>secretaryRoom</t>
   </si>
   <si>
-    <t>matterCourt</t>
-  </si>
-  <si>
-    <t>circuit_name</t>
-  </si>
-  <si>
-    <t>circuit_serial</t>
-  </si>
-  <si>
     <t>circuit_shift</t>
   </si>
   <si>
-    <t>matterDistination</t>
-  </si>
-  <si>
     <t>matterSelect</t>
   </si>
   <si>
-    <t>matterPartner</t>
-  </si>
-  <si>
-    <t>matterNotes1</t>
-  </si>
-  <si>
-    <t>lawyerA</t>
-  </si>
-  <si>
-    <t>lawyerB</t>
-  </si>
-  <si>
-    <t>matteEvaluation</t>
-  </si>
-  <si>
     <t>matterEndDate</t>
   </si>
   <si>
-    <t>الموقف الحالي</t>
-  </si>
-  <si>
     <t>نوع العميل</t>
   </si>
   <si>
@@ -313,25 +256,13 @@
     <t>خطاب الأتعاب</t>
   </si>
   <si>
-    <t>فريق العمل</t>
-  </si>
-  <si>
     <t>الرأي القانوني</t>
   </si>
   <si>
     <t>contractID</t>
   </si>
   <si>
-    <t>opponent_name</t>
-  </si>
-  <si>
-    <t>opponent_capacity</t>
-  </si>
-  <si>
     <t>client_name</t>
-  </si>
-  <si>
-    <t>client_capacity</t>
   </si>
   <si>
     <t>عمر مصطفى محمد سعودي، صفاء شبل محمد سعودي</t>
@@ -422,6 +353,69 @@
   </si>
   <si>
     <t>شركة القاهرة للاستثمار والتنمية</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>client_capacity_id</t>
+  </si>
+  <si>
+    <t>opponent_capacity_id</t>
+  </si>
+  <si>
+    <t>opponent_id</t>
+  </si>
+  <si>
+    <t>notes_2</t>
+  </si>
+  <si>
+    <t>notes_1</t>
+  </si>
+  <si>
+    <t>current_status</t>
+  </si>
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>lawyer_b</t>
+  </si>
+  <si>
+    <t>lawyer_a</t>
+  </si>
+  <si>
+    <t>matter_partner_id</t>
+  </si>
+  <si>
+    <t>matter_shelf</t>
+  </si>
+  <si>
+    <t>matter_start_date</t>
+  </si>
+  <si>
+    <t>matter_evaluation</t>
+  </si>
+  <si>
+    <t>matter_importance_id</t>
+  </si>
+  <si>
+    <t>matter_destination_id</t>
+  </si>
+  <si>
+    <t>matter_degree_id</t>
+  </si>
+  <si>
+    <t>court_id</t>
+  </si>
+  <si>
+    <t>circuit_name_id</t>
+  </si>
+  <si>
+    <t>matter_category_id</t>
+  </si>
+  <si>
+    <t>matter_status_id</t>
   </si>
 </sst>
 </file>
@@ -457,11 +451,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,12 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01F47B3-20DE-4747-BC88-4C34B1891460}">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.21875" customWidth="1"/>
@@ -793,6 +785,7 @@
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" customWidth="1"/>
     <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="31" max="31" width="25.21875" customWidth="1"/>
     <col min="34" max="34" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,127 +794,121 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AD1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AJ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AL1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AM1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AN1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AP1" t="s">
         <v>74</v>
-      </c>
-      <c r="W1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
@@ -941,13 +928,13 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -955,7 +942,7 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>42745</v>
       </c>
       <c r="T2" t="s">
@@ -985,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -999,7 +986,7 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>42183</v>
       </c>
       <c r="T3" t="s">
@@ -1026,16 +1013,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -1052,7 +1039,7 @@
       <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>43272</v>
       </c>
       <c r="T4" t="s">
@@ -1074,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN4">
         <v>2</v>
@@ -1100,13 +1087,13 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -1126,7 +1113,7 @@
       <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>40209</v>
       </c>
       <c r="T5" t="s">
@@ -1139,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -1159,16 +1146,16 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -1185,7 +1172,7 @@
       <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>43135</v>
       </c>
       <c r="T6" t="s">
@@ -1198,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="AK6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AM6">
         <v>25098</v>
@@ -1221,13 +1208,13 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -1247,7 +1234,7 @@
       <c r="M7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>42077</v>
       </c>
       <c r="T7" t="s">
@@ -1260,7 +1247,7 @@
         <v>56</v>
       </c>
       <c r="AK7" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -1280,16 +1267,16 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -1306,7 +1293,7 @@
       <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>41721</v>
       </c>
       <c r="T8" t="s">
@@ -1325,7 +1312,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -1345,16 +1332,16 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
@@ -1371,7 +1358,7 @@
       <c r="M9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>43165</v>
       </c>
       <c r="T9" t="s">
@@ -1387,7 +1374,7 @@
         <v>48</v>
       </c>
       <c r="AK9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -1407,13 +1394,13 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -1433,7 +1420,7 @@
       <c r="M10" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>40923</v>
       </c>
       <c r="AC10" t="b">
@@ -1443,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="AK10" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -1463,16 +1450,16 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
@@ -1489,7 +1476,7 @@
       <c r="M11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>42473</v>
       </c>
       <c r="T11" t="s">
@@ -1502,7 +1489,7 @@
         <v>56</v>
       </c>
       <c r="AK11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="AN11">
         <v>1</v>
